--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="131">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,249 +49,258 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>broke</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>pool</t>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>probably</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>water</t>
+    <t>small</t>
   </si>
   <si>
     <t>missing</t>
   </si>
   <si>
+    <t>guess</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>small</t>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>short</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>ok</t>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>apart</t>
   </si>
   <si>
     <t>fell</t>
   </si>
   <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>di</t>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>thought</t>
   </si>
   <si>
     <t>return</t>
   </si>
   <si>
-    <t>tried</t>
+    <t>sound</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
     <t>picture</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>seems</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>though</t>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>fit</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>hard</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>back</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>back</t>
-  </si>
-  <si>
     <t>would</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
+    <t>worked</t>
+  </si>
+  <si>
     <t>pieces</t>
   </si>
   <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
     <t>product</t>
   </si>
   <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
     <t>put</t>
   </si>
   <si>
-    <t>look</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>made</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>34</t>
   </si>
   <si>
-    <t>make</t>
+    <t>like</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>made</t>
+    <t>one</t>
   </si>
   <si>
     <t>toy</t>
   </si>
   <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
     <t>much</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
-    <t>one</t>
+    <t>really</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>classic</t>
   </si>
   <si>
@@ -301,100 +310,100 @@
     <t>loves</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>expansion</t>
+  </si>
+  <si>
+    <t>loved</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>enjoys</t>
+  </si>
+  <si>
+    <t>elf</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>learn</t>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
     <t>birthday</t>
   </si>
   <si>
-    <t>enjoyed</t>
+    <t>book</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>games</t>
+    <t>cute</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>grandson</t>
+  </si>
+  <si>
     <t>playing</t>
   </si>
   <si>
-    <t>play</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>grandson</t>
-  </si>
-  <si>
-    <t>daughter</t>
+    <t>son</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>gift</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>gift</t>
+    <t>year</t>
   </si>
   <si>
     <t>kids</t>
-  </si>
-  <si>
-    <t>year</t>
   </si>
   <si>
     <t>positive</t>
@@ -755,7 +764,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q80"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -763,10 +772,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -824,13 +833,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -842,19 +851,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K3">
-        <v>0.9107142857142857</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="L3">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="M3">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -866,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -895,7 +904,7 @@
         <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K4">
         <v>0.8888888888888888</v>
@@ -945,16 +954,16 @@
         <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K5">
-        <v>0.8769230769230769</v>
+        <v>0.875</v>
       </c>
       <c r="L5">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="M5">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -966,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -974,13 +983,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8309859154929577</v>
+        <v>0.796875</v>
       </c>
       <c r="C6">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -992,19 +1001,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K6">
-        <v>0.8172043010752689</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="L6">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M6">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1016,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1024,13 +1033,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.765625</v>
+        <v>0.7150537634408602</v>
       </c>
       <c r="C7">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="D7">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1042,19 +1051,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K7">
-        <v>0.765625</v>
+        <v>0.734375</v>
       </c>
       <c r="L7">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M7">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1066,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1074,13 +1083,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7204301075268817</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C8">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1092,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K8">
-        <v>0.7358490566037735</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1116,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1124,13 +1133,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7027027027027027</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C9">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1142,19 +1151,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K9">
-        <v>0.6278735632183908</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="L9">
-        <v>437</v>
+        <v>35</v>
       </c>
       <c r="M9">
-        <v>438</v>
+        <v>35</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1163,10 +1172,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>259</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1174,13 +1183,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6990291262135923</v>
+        <v>0.7038834951456311</v>
       </c>
       <c r="C10">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D10">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1192,19 +1201,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K10">
-        <v>0.5954356846473029</v>
+        <v>0.6048850574712644</v>
       </c>
       <c r="L10">
-        <v>287</v>
+        <v>421</v>
       </c>
       <c r="M10">
-        <v>287</v>
+        <v>422</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1213,10 +1222,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>195</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1224,13 +1233,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6571428571428571</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1242,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K11">
-        <v>0.5660377358490566</v>
+        <v>0.5933609958506224</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>286</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>286</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1266,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>23</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1274,13 +1283,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6458333333333334</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="C12">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1292,19 +1301,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K12">
-        <v>0.5476190476190477</v>
+        <v>0.5373256767842494</v>
       </c>
       <c r="L12">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="M12">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1316,7 +1325,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>551</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1324,13 +1333,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6363636363636364</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C13">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1342,19 +1351,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K13">
-        <v>0.5362318840579711</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="L13">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1366,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1374,13 +1383,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.631578947368421</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1392,19 +1401,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K14">
-        <v>0.4518072289156627</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="L14">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="M14">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1416,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>91</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1424,13 +1433,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6134453781512605</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C15">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="D15">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1442,19 +1451,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K15">
-        <v>0.4403669724770642</v>
+        <v>0.4587155963302753</v>
       </c>
       <c r="L15">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="M15">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1466,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1474,13 +1483,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5952380952380952</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1492,19 +1501,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K16">
-        <v>0.4391534391534391</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="L16">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="M16">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1516,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1524,13 +1533,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5777777777777777</v>
+        <v>0.5872093023255814</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>202</v>
       </c>
       <c r="D17">
-        <v>26</v>
+        <v>203</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1539,22 +1548,22 @@
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K17">
-        <v>0.3666666666666666</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="L17">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="M17">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1566,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>76</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1574,13 +1583,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5662650602409639</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="C18">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1592,19 +1601,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K18">
-        <v>0.3426573426573427</v>
+        <v>0.375</v>
       </c>
       <c r="L18">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M18">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1616,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1624,13 +1633,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5594202898550724</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C19">
-        <v>193</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>193</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1642,19 +1651,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K19">
-        <v>0.3359375</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="L19">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="M19">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1666,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>85</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1674,13 +1683,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5185185185185185</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="C20">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D20">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1692,19 +1701,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K20">
-        <v>0.312</v>
+        <v>0.34375</v>
       </c>
       <c r="L20">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M20">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1716,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>86</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1724,13 +1733,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="C21">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D21">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1742,19 +1751,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K21">
-        <v>0.2688172043010753</v>
+        <v>0.328125</v>
       </c>
       <c r="L21">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="M21">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1766,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>136</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1774,13 +1783,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4909090909090909</v>
+        <v>0.5234375</v>
       </c>
       <c r="C22">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="D22">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1792,19 +1801,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K22">
-        <v>0.264367816091954</v>
+        <v>0.3146853146853147</v>
       </c>
       <c r="L22">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1816,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1824,13 +1833,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4897959183673469</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D23">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1842,31 +1851,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K23">
-        <v>0.2583479789103691</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="L23">
-        <v>294</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>297</v>
+        <v>38</v>
       </c>
       <c r="N23">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>844</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1874,37 +1883,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4834123222748815</v>
+        <v>0.5</v>
       </c>
       <c r="C24">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K24">
-        <v>0.2570281124497992</v>
+        <v>0.2849462365591398</v>
       </c>
       <c r="L24">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="M24">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1916,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>185</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1924,13 +1933,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4803149606299212</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C25">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="D25">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1942,31 +1951,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K25">
-        <v>0.2393162393162393</v>
+        <v>0.2741935483870968</v>
       </c>
       <c r="L25">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="M25">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>89</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1974,13 +1983,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4761904761904762</v>
+        <v>0.4786729857819905</v>
       </c>
       <c r="C26">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="D26">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1992,19 +2001,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K26">
-        <v>0.1984126984126984</v>
+        <v>0.256</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2016,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2024,13 +2033,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4736842105263158</v>
+        <v>0.4724409448818898</v>
       </c>
       <c r="C27">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D27">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2042,31 +2051,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K27">
-        <v>0.1782729805013928</v>
+        <v>0.2530755711775044</v>
       </c>
       <c r="L27">
-        <v>64</v>
+        <v>288</v>
       </c>
       <c r="M27">
-        <v>64</v>
+        <v>291</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>295</v>
+        <v>850</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2074,13 +2083,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.462962962962963</v>
+        <v>0.46875</v>
       </c>
       <c r="C28">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D28">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2092,31 +2101,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K28">
-        <v>0.1653645833333333</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="L28">
-        <v>254</v>
+        <v>24</v>
       </c>
       <c r="M28">
-        <v>259</v>
+        <v>24</v>
       </c>
       <c r="N28">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>1282</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2124,13 +2133,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4444444444444444</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D29">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2142,31 +2151,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K29">
-        <v>0.1568627450980392</v>
+        <v>0.1753246753246753</v>
       </c>
       <c r="L29">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M29">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N29">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2174,13 +2183,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4375</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="C30">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D30">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2192,31 +2201,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K30">
-        <v>0.1559139784946237</v>
+        <v>0.1581001951854261</v>
       </c>
       <c r="L30">
-        <v>58</v>
+        <v>243</v>
       </c>
       <c r="M30">
-        <v>60</v>
+        <v>247</v>
       </c>
       <c r="N30">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O30">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>314</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2224,13 +2233,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4032258064516129</v>
+        <v>0.417910447761194</v>
       </c>
       <c r="C31">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D31">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2242,31 +2251,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K31">
-        <v>0.1392405063291139</v>
+        <v>0.1550802139037433</v>
       </c>
       <c r="L31">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="N31">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>136</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2274,13 +2283,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3934426229508197</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="C32">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D32">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2292,31 +2301,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K32">
-        <v>0.1041666666666667</v>
+        <v>0.1448467966573816</v>
       </c>
       <c r="L32">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="M32">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="N32">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>258</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2324,13 +2333,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3932584269662922</v>
+        <v>0.4</v>
       </c>
       <c r="C33">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D33">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2342,31 +2351,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K33">
-        <v>0.09937888198757763</v>
+        <v>0.1171875</v>
       </c>
       <c r="L33">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N33">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O33">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>290</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2374,49 +2383,49 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3833333333333334</v>
+        <v>0.3930348258706468</v>
       </c>
       <c r="C34">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="D34">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K34">
-        <v>0.09811827956989247</v>
+        <v>0.1157894736842105</v>
       </c>
       <c r="L34">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="M34">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="N34">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="O34">
-        <v>0.09999999999999998</v>
+        <v>0.13</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>671</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2424,13 +2433,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3432835820895522</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="C35">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D35">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2442,31 +2451,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K35">
-        <v>0.09727626459143969</v>
+        <v>0.09664429530201342</v>
       </c>
       <c r="L35">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="M35">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>232</v>
+        <v>673</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2474,13 +2483,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3316831683168317</v>
+        <v>0.3623188405797101</v>
       </c>
       <c r="C36">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="D36">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2492,19 +2501,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K36">
-        <v>0.09294871794871795</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="L36">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M36">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N36">
         <v>0.9399999999999999</v>
@@ -2516,7 +2525,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2524,13 +2533,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3195876288659794</v>
+        <v>0.3595505617977528</v>
       </c>
       <c r="C37">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D37">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2542,13 +2551,13 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K37">
-        <v>0.08695652173913043</v>
+        <v>0.08099688473520249</v>
       </c>
       <c r="L37">
         <v>26</v>
@@ -2566,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>273</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2574,13 +2583,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3061224489795918</v>
+        <v>0.3298969072164948</v>
       </c>
       <c r="C38">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D38">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2592,31 +2601,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K38">
-        <v>0.07670043415340087</v>
+        <v>0.0665083135391924</v>
       </c>
       <c r="L38">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="M38">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="N38">
-        <v>0.79</v>
+        <v>0.7</v>
       </c>
       <c r="O38">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>638</v>
+        <v>393</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2624,13 +2633,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2934782608695652</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="C39">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="D39">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2642,25 +2651,25 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>195</v>
+        <v>66</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K39">
-        <v>0.06994818652849741</v>
+        <v>0.06510416666666667</v>
       </c>
       <c r="L39">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M39">
         <v>37</v>
       </c>
       <c r="N39">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="O39">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
@@ -2674,49 +2683,49 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2933333333333333</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="C40">
+        <v>24</v>
+      </c>
+      <c r="D40">
+        <v>24</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>50</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K40">
+        <v>0.06432748538011696</v>
+      </c>
+      <c r="L40">
         <v>22</v>
       </c>
-      <c r="D40">
-        <v>22</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>53</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K40">
-        <v>0.06647398843930635</v>
-      </c>
-      <c r="L40">
-        <v>23</v>
-      </c>
       <c r="M40">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N40">
-        <v>0.82</v>
+        <v>0.71</v>
       </c>
       <c r="O40">
-        <v>0.18</v>
+        <v>0.29</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2724,13 +2733,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2735042735042735</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C41">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D41">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2742,31 +2751,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K41">
-        <v>0.06474820143884892</v>
+        <v>0.05738880918220947</v>
       </c>
       <c r="L41">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M41">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N41">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="O41">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>520</v>
+        <v>657</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2774,13 +2783,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2731958762886598</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="C42">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D42">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2792,31 +2801,31 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K42">
-        <v>0.06339468302658487</v>
+        <v>0.05691056910569105</v>
       </c>
       <c r="L42">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M42">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N42">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="O42">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>458</v>
+        <v>464</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2824,13 +2833,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2689873417721519</v>
+        <v>0.286231884057971</v>
       </c>
       <c r="C43">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D43">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2842,31 +2851,31 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="K43">
-        <v>0.03129251700680272</v>
+        <v>0.05054151624548736</v>
       </c>
       <c r="L43">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M43">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="N43">
+        <v>0.72</v>
+      </c>
+      <c r="O43">
         <v>0.28</v>
       </c>
-      <c r="O43">
-        <v>0.72</v>
-      </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>712</v>
+        <v>526</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2874,25 +2883,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2663316582914573</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C44">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D44">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="E44">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>146</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2900,13 +2909,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2658227848101266</v>
+        <v>0.2783505154639175</v>
       </c>
       <c r="C45">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D45">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2918,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>232</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2926,13 +2935,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2428571428571429</v>
+        <v>0.2731958762886598</v>
       </c>
       <c r="C46">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D46">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2944,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>106</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2952,25 +2961,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2380952380952381</v>
+        <v>0.271356783919598</v>
       </c>
       <c r="C47">
-        <v>160</v>
+        <v>54</v>
       </c>
       <c r="D47">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="E47">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F47">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>512</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2978,25 +2987,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2372881355932203</v>
+        <v>0.2586206896551724</v>
       </c>
       <c r="C48">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D48">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3004,25 +3013,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2347417840375587</v>
+        <v>0.2563291139240506</v>
       </c>
       <c r="C49">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="D49">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="E49">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>163</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3030,25 +3039,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2276657060518732</v>
+        <v>0.25</v>
       </c>
       <c r="C50">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D50">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E50">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="F50">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>268</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3056,13 +3065,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2240437158469945</v>
+        <v>0.25</v>
       </c>
       <c r="C51">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D51">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3074,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>142</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3082,25 +3091,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2222222222222222</v>
+        <v>0.2405063291139241</v>
       </c>
       <c r="C52">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D52">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="E52">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>350</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3108,25 +3117,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2169312169312169</v>
+        <v>0.2399403874813711</v>
       </c>
       <c r="C53">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="D53">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="E53">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="F53">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>148</v>
+        <v>510</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3134,25 +3143,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2165605095541401</v>
+        <v>0.2305475504322766</v>
       </c>
       <c r="C54">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="D54">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>123</v>
+        <v>267</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3160,13 +3169,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.205607476635514</v>
+        <v>0.2242990654205607</v>
       </c>
       <c r="C55">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D55">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E55">
         <v>0.04</v>
@@ -3178,7 +3187,7 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3186,13 +3195,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.203125</v>
+        <v>0.2240437158469945</v>
       </c>
       <c r="C56">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D56">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3204,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3212,25 +3221,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2</v>
+        <v>0.2204724409448819</v>
       </c>
       <c r="C57">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D57">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3238,19 +3247,19 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1907894736842105</v>
+        <v>0.2115384615384615</v>
       </c>
       <c r="C58">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D58">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E58">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F58">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
@@ -3264,25 +3273,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1889763779527559</v>
+        <v>0.2052631578947368</v>
       </c>
       <c r="C59">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D59">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E59">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F59">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>103</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3290,25 +3299,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1764705882352941</v>
+        <v>0.1942857142857143</v>
       </c>
       <c r="C60">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D60">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E60">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3316,25 +3325,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1735537190082645</v>
+        <v>0.1875</v>
       </c>
       <c r="C61">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D61">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E61">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>200</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3342,25 +3351,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1714285714285714</v>
+        <v>0.1836283185840708</v>
       </c>
       <c r="C62">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="D62">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>145</v>
+        <v>369</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3368,25 +3377,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1673003802281369</v>
+        <v>0.1776315789473684</v>
       </c>
       <c r="C63">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D63">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E63">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F63">
-        <v>0.92</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>219</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3394,25 +3403,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1656804733727811</v>
+        <v>0.1673003802281369</v>
       </c>
       <c r="C64">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D64">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E64">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="F64">
-        <v>0.9299999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>141</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3420,25 +3429,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1648351648351648</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C65">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D65">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="E65">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="F65">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>304</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3446,25 +3455,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1464968152866242</v>
+        <v>0.1629834254143646</v>
       </c>
       <c r="C66">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="D66">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="E66">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F66">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>134</v>
+        <v>303</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3472,25 +3481,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1453488372093023</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="C67">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D67">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E67">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="F67">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>147</v>
+        <v>300</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3498,25 +3507,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1444695259593679</v>
+        <v>0.1487603305785124</v>
       </c>
       <c r="C68">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D68">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E68">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="F68">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>379</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3524,25 +3533,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1363636363636364</v>
+        <v>0.1444043321299639</v>
       </c>
       <c r="C69">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D69">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E69">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F69">
-        <v>0.9399999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>304</v>
+        <v>237</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3550,25 +3559,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1256544502617801</v>
+        <v>0.143312101910828</v>
       </c>
       <c r="C70">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D70">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E70">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
       <c r="F70">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>167</v>
+        <v>269</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3576,25 +3585,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1214642262895175</v>
+        <v>0.1413043478260869</v>
       </c>
       <c r="C71">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="D71">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="E71">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="F71">
-        <v>0.91</v>
+        <v>0.84</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>528</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3602,25 +3611,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1163636363636364</v>
+        <v>0.1392405063291139</v>
       </c>
       <c r="C72">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D72">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E72">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>243</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3628,25 +3637,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1054313099041534</v>
+        <v>0.1260364842454395</v>
       </c>
       <c r="C73">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="D73">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E73">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="F73">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>280</v>
+        <v>527</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3654,25 +3663,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.09273570324574962</v>
+        <v>0.1143497757847534</v>
       </c>
       <c r="C74">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D74">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E74">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="F74">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>587</v>
+        <v>395</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3680,25 +3689,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.0924170616113744</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C75">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="D75">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="E75">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="F75">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>383</v>
+        <v>700</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3706,25 +3715,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.08433734939759036</v>
+        <v>0.09442724458204334</v>
       </c>
       <c r="C76">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D76">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="E76">
-        <v>0.29</v>
+        <v>0.13</v>
       </c>
       <c r="F76">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>380</v>
+        <v>585</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3732,25 +3741,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.07652399481193256</v>
+        <v>0.08045977011494253</v>
       </c>
       <c r="C77">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D77">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="E77">
-        <v>0.28</v>
+        <v>0.1</v>
       </c>
       <c r="F77">
-        <v>0.72</v>
+        <v>0.9</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>712</v>
+        <v>320</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3758,25 +3767,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.05336426914153132</v>
+        <v>0.08</v>
       </c>
       <c r="C78">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D78">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E78">
-        <v>0.41</v>
+        <v>0.09</v>
       </c>
       <c r="F78">
-        <v>0.5900000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>408</v>
+        <v>460</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3784,25 +3793,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.0525164113785558</v>
+        <v>0.07529411764705882</v>
       </c>
       <c r="C79">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D79">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E79">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="F79">
-        <v>0.6699999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>433</v>
+        <v>393</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3810,25 +3819,77 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.05210420841683366</v>
+        <v>0.07416267942583732</v>
       </c>
       <c r="C80">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D80">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E80">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
       <c r="F80">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>473</v>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81">
+        <v>0.07032967032967033</v>
+      </c>
+      <c r="C81">
+        <v>32</v>
+      </c>
+      <c r="D81">
+        <v>46</v>
+      </c>
+      <c r="E81">
+        <v>0.3</v>
+      </c>
+      <c r="F81">
+        <v>0.7</v>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82">
+        <v>0.05275229357798165</v>
+      </c>
+      <c r="C82">
+        <v>23</v>
+      </c>
+      <c r="D82">
+        <v>34</v>
+      </c>
+      <c r="E82">
+        <v>0.32</v>
+      </c>
+      <c r="F82">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>413</v>
       </c>
     </row>
   </sheetData>
